--- a/DSP_H2_2025/Tháng 9/NewEleven_20251002_20251002_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20251002_20251002_DSP Product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>Creative Asset</t>
   </si>
@@ -170,10 +170,10 @@
     <t>B0DH86X93V-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CYPT8HM7-Birthday-Cf glass</t>
+    <t>B0DHCGTL3R-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DHCGTL3R-Birthday-Tumblers</t>
+    <t>B0CYPT8HM7-Birthday-Cf glass</t>
   </si>
   <si>
     <t>B0DGGDX9P5-Birthday-Tumblers</t>
@@ -182,19 +182,19 @@
     <t>B0DH7YGD9Q-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B089QFYLFB-Birthday-Tumblers</t>
+    <t>B0DH7X6R1J-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DH7X6R1J-Birthday-Tumblers</t>
+    <t>B089QFYLFB-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CYS94K31-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DM61B4F2-Birthday-Tumblers</t>
+    <t>B0DHCFTYVW-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DHCFTYVW-Birthday-Tumblers</t>
+    <t>B0DM61B4F2-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH83T7MF-Birthday-Tumblers</t>
@@ -221,10 +221,10 @@
     <t>B0F13MKH7X-Retirement-Wine Glass</t>
   </si>
   <si>
-    <t>B08ZRWW1W4-Retirement - tumblers</t>
+    <t>B0DH7Y6RDX-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0DH7Y6RDX-Birthday-Wineglass</t>
+    <t>B08ZRWW1W4-Retirement - tumblers</t>
   </si>
   <si>
     <t>B09ZYCD6GX-Retirement</t>
@@ -299,19 +299,19 @@
     <t>B0D1K731RT-Moms-Cf glass</t>
   </si>
   <si>
-    <t>B0DCJM56W3-Moms-Cf glass</t>
+    <t>B0CJX4XSXB-Moms - Tumblers</t>
   </si>
   <si>
-    <t>B0CJX4XSXB-Moms - Tumblers</t>
+    <t>B0DCJM56W3-Moms-Cf glass</t>
   </si>
   <si>
     <t>B0DH87FYNN-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0BHWDNYVL-Moms - Cf glass</t>
+    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
   </si>
   <si>
-    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
+    <t>B0BHWDNYVL-Moms - Cf glass</t>
   </si>
   <si>
     <t>B0D79751XN-Birthday-Tumblers</t>
@@ -320,16 +320,16 @@
     <t>B0CYPWBV21-Birthday-Cf glass</t>
   </si>
   <si>
+    <t>B09ZYBDMZ1-Retirement-tumblers</t>
+  </si>
+  <si>
     <t>B0C9BZRC4K-Moms - Cf glass</t>
   </si>
   <si>
-    <t>B0CXXJ751C-Retirement-cfglass</t>
+    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B09ZYBDMZ1-Retirement-tumblers</t>
-  </si>
-  <si>
-    <t>B0D1GH6WJ6-Birthday-Tumblers</t>
+    <t>B0CXXJ751C-Retirement-cfglass</t>
   </si>
   <si>
     <t>B0978WGWY4-Birthday-Tumblers</t>
@@ -341,10 +341,16 @@
     <t>B09YCTFXYV-Retirement-tumblers</t>
   </si>
   <si>
+    <t>B0CDLQGPKC-Birthday-Tumblers</t>
+  </si>
+  <si>
+    <t>B0DLVS7R7V-Retirement-ornaments</t>
+  </si>
+  <si>
     <t>B0DJYD117Z-Birthday Ornaments</t>
   </si>
   <si>
-    <t>B0DLVS7R7V-Retirement-ornaments</t>
+    <t>Others</t>
   </si>
   <si>
     <t>Total</t>
@@ -2623,7 +2629,7 @@
       <xdr:row>73</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:ext cx="952500" cy="800100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="73" name="" descr=""/>
@@ -2633,6 +2639,66 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="790575"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2939,10 +3005,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:AL74"/>
+      <selection activeCell="A1" sqref="A1:AL76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2975,7 +3041,7 @@
     <col min="26" max="26" width="4.570313" bestFit="true" customWidth="true" style="4"/>
     <col min="27" max="27" width="6.998291" bestFit="true" customWidth="true" style="3"/>
     <col min="28" max="28" width="13.996582" bestFit="true" customWidth="true" style="2"/>
-    <col min="29" max="29" width="9.283447" bestFit="true" customWidth="true" style="2"/>
+    <col min="29" max="29" width="8.140869" bestFit="true" customWidth="true" style="2"/>
     <col min="30" max="30" width="16.424561" bestFit="true" customWidth="true" style="2"/>
     <col min="31" max="31" width="38.847656" bestFit="true" customWidth="true" style="2"/>
     <col min="32" max="32" width="31.706543" bestFit="true" customWidth="true" style="2"/>
@@ -3109,52 +3175,52 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>12.55</v>
+        <v>12.49</v>
       </c>
       <c r="D2" s="7">
-        <v>51.94</v>
+        <v>50.94</v>
       </c>
       <c r="E2" s="7">
         <v>1.56</v>
       </c>
       <c r="F2" s="7">
-        <v>1.79</v>
+        <v>0.48</v>
       </c>
       <c r="G2" s="6">
-        <v>4.14</v>
+        <v>4.08</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="8">
-        <v>0.0022</v>
+        <v>0.002</v>
       </c>
       <c r="J2" s="8">
-        <v>0.0009</v>
+        <v>0.0032</v>
       </c>
       <c r="K2" s="8">
-        <v>0.0002</v>
+        <v>0.001</v>
       </c>
       <c r="L2" s="7">
-        <v>4.18</v>
+        <v>4.16</v>
       </c>
       <c r="M2" s="6">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="N2" s="8">
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>8040</v>
+        <v>8003</v>
       </c>
       <c r="P2" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="9">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="R2" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S2" s="9">
         <v>3</v>
@@ -3166,43 +3232,43 @@
         <v>0</v>
       </c>
       <c r="V2" s="7">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="W2" s="9">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="X2" s="8">
-        <v>0.0009</v>
+        <v>0.0026</v>
       </c>
       <c r="Y2" s="7">
-        <v>1.79</v>
+        <v>0.59</v>
       </c>
       <c r="Z2" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="8">
-        <v>0.0002</v>
+        <v>0.0006</v>
       </c>
       <c r="AB2" s="7">
-        <v>6.28</v>
+        <v>1.56</v>
       </c>
       <c r="AC2" s="7">
-        <v>6.28</v>
+        <v>2.5</v>
       </c>
       <c r="AD2" s="7">
-        <v>35.96</v>
+        <v>34.96</v>
       </c>
       <c r="AE2" s="7">
-        <v>51.94</v>
+        <v>50.94</v>
       </c>
       <c r="AF2" s="7">
-        <v>35.96</v>
+        <v>34.96</v>
       </c>
       <c r="AG2" s="6">
-        <v>4.14</v>
+        <v>4.08</v>
       </c>
       <c r="AH2" s="6">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AI2" s="9">
         <v>2</v>
@@ -3214,7 +3280,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL2" s="7">
-        <v>6.28</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="90">
@@ -3223,7 +3289,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>12.44</v>
+        <v>12.4</v>
       </c>
       <c r="D3" s="7">
         <v>15.98</v>
@@ -3232,43 +3298,43 @@
         <v>1.57</v>
       </c>
       <c r="F3" s="7">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="G3" s="6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3" s="8">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0019</v>
+        <v>0.0035</v>
       </c>
       <c r="K3" s="8">
-        <v>0.0001</v>
+        <v>0.0004</v>
       </c>
       <c r="L3" s="7">
-        <v>12.44</v>
+        <v>12.4</v>
       </c>
       <c r="M3" s="6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="N3" s="8">
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>7933</v>
+        <v>7902</v>
       </c>
       <c r="P3" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="R3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -3280,28 +3346,28 @@
         <v>1</v>
       </c>
       <c r="V3" s="7">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="W3" s="9">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="X3" s="8">
-        <v>0.0019</v>
+        <v>0.0034</v>
       </c>
       <c r="Y3" s="7">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
       <c r="Z3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="8">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="AB3" s="7">
-        <v>12.44</v>
+        <v>4.13</v>
       </c>
       <c r="AC3" s="7">
-        <v>12.44</v>
+        <v>6.2</v>
       </c>
       <c r="AD3" s="7">
         <v>15.98</v>
@@ -3313,10 +3379,10 @@
         <v>15.98</v>
       </c>
       <c r="AG3" s="6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AH3" s="6">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AI3" s="9">
         <v>1</v>
@@ -3328,7 +3394,7 @@
         <v>0.0001</v>
       </c>
       <c r="AL3" s="7">
-        <v>12.44</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="90">
@@ -3337,7 +3403,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <v>8.12</v>
+        <v>8.09</v>
       </c>
       <c r="D4" s="7">
         <v>46.95</v>
@@ -3346,43 +3412,43 @@
         <v>0.41</v>
       </c>
       <c r="F4" s="7">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G4" s="6">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
       </c>
       <c r="I4" s="8">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0026</v>
+        <v>0.0036</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L4" s="7">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="M4" s="6">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>20021</v>
+        <v>19856</v>
       </c>
       <c r="P4" s="9">
         <v>19</v>
       </c>
       <c r="Q4" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="R4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S4" s="9">
         <v>3</v>
@@ -3397,25 +3463,25 @@
         <v>0.43</v>
       </c>
       <c r="W4" s="9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="X4" s="8">
-        <v>0.0007</v>
+        <v>0.0015</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.58</v>
+        <v>0.28</v>
       </c>
       <c r="Z4" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA4" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB4" s="7">
-        <v>8.12</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" s="7">
-        <v>8.12</v>
+        <v>1.62</v>
       </c>
       <c r="AD4" s="7">
         <v>15.98</v>
@@ -3427,22 +3493,22 @@
         <v>15.98</v>
       </c>
       <c r="AG4" s="6">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="AH4" s="6">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AI4" s="9">
         <v>1</v>
       </c>
       <c r="AJ4" s="8">
+        <v>0.0002</v>
+      </c>
+      <c r="AK4" s="8">
         <v>0.0001</v>
       </c>
-      <c r="AK4" s="8">
-        <v>0</v>
-      </c>
       <c r="AL4" s="7">
-        <v>8.12</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="90">
@@ -3451,7 +3517,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>7.12</v>
+        <v>7.11</v>
       </c>
       <c r="D5" s="7">
         <v>37.96</v>
@@ -3460,10 +3526,10 @@
         <v>0.2</v>
       </c>
       <c r="F5" s="7">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="G5" s="6">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="H5" s="8">
         <v>1</v>
@@ -3472,31 +3538,31 @@
         <v>0.0008</v>
       </c>
       <c r="J5" s="8">
-        <v>0.0015</v>
+        <v>0.0022</v>
       </c>
       <c r="K5" s="8">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
       <c r="L5" s="7">
         <v>3.56</v>
       </c>
       <c r="M5" s="6">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>35292</v>
+        <v>34941</v>
       </c>
       <c r="P5" s="9">
         <v>29</v>
       </c>
       <c r="Q5" s="9">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="R5" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S5" s="9">
         <v>2</v>
@@ -3511,25 +3577,25 @@
         <v>0.25</v>
       </c>
       <c r="W5" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="X5" s="8">
-        <v>0.0009</v>
+        <v>0.0013</v>
       </c>
       <c r="Y5" s="7">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="8">
         <v>0.0001</v>
       </c>
       <c r="AB5" s="7">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
       <c r="AC5" s="7">
-        <v>3.56</v>
+        <v>2.37</v>
       </c>
       <c r="AD5" s="7">
         <v>37.96</v>
@@ -3541,10 +3607,10 @@
         <v>37.96</v>
       </c>
       <c r="AG5" s="6">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="AH5" s="6">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="AI5" s="9">
         <v>2</v>
@@ -3565,16 +3631,16 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D6" s="7">
         <v>19.98</v>
       </c>
       <c r="E6" s="7">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="F6" s="7">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="G6" s="6">
         <v>3.23</v>
@@ -3586,13 +3652,13 @@
         <v>0.0012</v>
       </c>
       <c r="J6" s="8">
-        <v>0.003</v>
+        <v>0.0071</v>
       </c>
       <c r="K6" s="8">
-        <v>0.0004</v>
+        <v>0.0015</v>
       </c>
       <c r="L6" s="7">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="M6" s="6">
         <v>3.23</v>
@@ -3601,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>6667</v>
+        <v>6587</v>
       </c>
       <c r="P6" s="9">
         <v>8</v>
       </c>
       <c r="Q6" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="R6" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S6" s="9">
         <v>1</v>
@@ -3625,25 +3691,25 @@
         <v>0.77</v>
       </c>
       <c r="W6" s="9">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X6" s="8">
-        <v>0.0016</v>
+        <v>0.0052</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.56</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="8">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="AB6" s="7">
-        <v>2.06</v>
+        <v>0.62</v>
       </c>
       <c r="AC6" s="7">
-        <v>6.19</v>
+        <v>1.24</v>
       </c>
       <c r="AD6" s="7">
         <v>19.98</v>
@@ -3664,13 +3730,13 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="AK6" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="AL6" s="7">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="90">
@@ -3688,7 +3754,7 @@
         <v>0.26</v>
       </c>
       <c r="F7" s="7">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="G7" s="6">
         <v>13.87</v>
@@ -3700,10 +3766,10 @@
         <v>0.0012</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0022</v>
+        <v>0.0038</v>
       </c>
       <c r="K7" s="8">
-        <v>0.0002</v>
+        <v>0.0004</v>
       </c>
       <c r="L7" s="7">
         <v>1.09</v>
@@ -3715,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>21368</v>
+        <v>21161</v>
       </c>
       <c r="P7" s="9">
         <v>26</v>
       </c>
       <c r="Q7" s="9">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="R7" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S7" s="9">
         <v>5</v>
@@ -3739,25 +3805,25 @@
         <v>0.21</v>
       </c>
       <c r="W7" s="9">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="X7" s="8">
-        <v>0.0007</v>
+        <v>0.0017</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB7" s="7">
-        <v>1.37</v>
+        <v>0.68</v>
       </c>
       <c r="AC7" s="7">
-        <v>5.46</v>
+        <v>2.73</v>
       </c>
       <c r="AD7" s="7">
         <v>56.75</v>
@@ -3793,7 +3859,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>4.36</v>
+        <v>4.35</v>
       </c>
       <c r="D8" s="7">
         <v>72.92</v>
@@ -3802,10 +3868,10 @@
         <v>0.44</v>
       </c>
       <c r="F8" s="7">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="G8" s="6">
-        <v>16.72</v>
+        <v>16.76</v>
       </c>
       <c r="H8" s="8">
         <v>1</v>
@@ -3814,31 +3880,31 @@
         <v>0.0019</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0017</v>
+        <v>0.0044</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L8" s="7">
         <v>1.09</v>
       </c>
       <c r="M8" s="6">
-        <v>16.72</v>
+        <v>16.76</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>9999</v>
+        <v>9898</v>
       </c>
       <c r="P8" s="9">
         <v>19</v>
       </c>
       <c r="Q8" s="9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="R8" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="9">
         <v>4</v>
@@ -3853,25 +3919,25 @@
         <v>0.23</v>
       </c>
       <c r="W8" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="X8" s="8">
-        <v>0.0017</v>
+        <v>0.0032</v>
       </c>
       <c r="Y8" s="7">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="Z8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB8" s="7">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC8" s="7">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="AD8" s="7">
         <v>72.92</v>
@@ -3883,10 +3949,10 @@
         <v>72.92</v>
       </c>
       <c r="AG8" s="6">
-        <v>16.72</v>
+        <v>16.76</v>
       </c>
       <c r="AH8" s="6">
-        <v>16.72</v>
+        <v>16.76</v>
       </c>
       <c r="AI8" s="9">
         <v>4</v>
@@ -3916,7 +3982,7 @@
         <v>0.43</v>
       </c>
       <c r="F9" s="7">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G9" s="6">
         <v>5.36</v>
@@ -3928,10 +3994,10 @@
         <v>0.0022</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0052</v>
+        <v>0.0077</v>
       </c>
       <c r="K9" s="8">
-        <v>0.0001</v>
+        <v>0.0006</v>
       </c>
       <c r="L9" s="7">
         <v>4.29</v>
@@ -3943,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>9990</v>
+        <v>9897</v>
       </c>
       <c r="P9" s="9">
         <v>22</v>
       </c>
       <c r="Q9" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="R9" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S9" s="9">
         <v>1</v>
@@ -3967,25 +4033,25 @@
         <v>0.2</v>
       </c>
       <c r="W9" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X9" s="8">
-        <v>0.0017</v>
+        <v>0.003</v>
       </c>
       <c r="Y9" s="7">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="8">
-        <v>0.0001</v>
+        <v>0.0006</v>
       </c>
       <c r="AB9" s="7">
-        <v>4.29</v>
+        <v>0.72</v>
       </c>
       <c r="AC9" s="7">
-        <v>4.29</v>
+        <v>0.72</v>
       </c>
       <c r="AD9" s="7">
         <v>22.98</v>
@@ -4021,7 +4087,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="D10" s="7">
         <v>22.98</v>
@@ -4030,10 +4096,10 @@
         <v>1.75</v>
       </c>
       <c r="F10" s="7">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="6">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
       <c r="H10" s="8">
         <v>1</v>
@@ -4042,13 +4108,13 @@
         <v>0.0035</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0041</v>
+        <v>0.0088</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L10" s="7">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="M10" s="6">
         <v>0</v>
@@ -4057,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="P10" s="9">
         <v>6</v>
       </c>
       <c r="Q10" s="9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="9">
         <v>1</v>
@@ -4081,25 +4147,25 @@
         <v>0.5</v>
       </c>
       <c r="W10" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X10" s="8">
-        <v>0.0023</v>
+        <v>0.0047</v>
       </c>
       <c r="Y10" s="7">
-        <v>0.75</v>
+        <v>0.37</v>
       </c>
       <c r="Z10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB10" s="7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC10" s="7">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AD10" s="7">
         <v>0</v>
@@ -4111,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="6">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
       <c r="AH10" s="6">
         <v>0</v>
@@ -4141,10 +4207,10 @@
         <v>19.98</v>
       </c>
       <c r="E11" s="7">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="F11" s="7">
-        <v>0.72</v>
+        <v>0.29</v>
       </c>
       <c r="G11" s="6">
         <v>6.91</v>
@@ -4156,10 +4222,10 @@
         <v>0.001</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0021</v>
+        <v>0.0052</v>
       </c>
       <c r="K11" s="8">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L11" s="7">
         <v>2.89</v>
@@ -4171,16 +4237,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>1935</v>
+        <v>1921</v>
       </c>
       <c r="P11" s="9">
         <v>2</v>
       </c>
       <c r="Q11" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R11" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" s="9">
         <v>1</v>
@@ -4195,25 +4261,25 @@
         <v>1.44</v>
       </c>
       <c r="W11" s="9">
+        <v>7</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0.0036</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="Z11" s="9">
         <v>2</v>
       </c>
-      <c r="X11" s="8">
+      <c r="AA11" s="8">
         <v>0.001</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="AB11" s="7">
         <v>1.44</v>
       </c>
-      <c r="Z11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
       <c r="AC11" s="7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AD11" s="7">
         <v>19.98</v>
@@ -4258,7 +4324,7 @@
         <v>1.79</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -4270,10 +4336,10 @@
         <v>0.0031</v>
       </c>
       <c r="J12" s="8">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="K12" s="8">
-        <v>0.0006</v>
+        <v>0.0012</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -4285,16 +4351,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="P12" s="9">
         <v>5</v>
       </c>
       <c r="Q12" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9">
         <v>0</v>
@@ -4309,25 +4375,25 @@
         <v>0.57</v>
       </c>
       <c r="W12" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" s="8">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="Y12" s="7">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="Z12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB12" s="7">
+        <v>1.43</v>
+      </c>
+      <c r="AC12" s="7">
         <v>2.87</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>0</v>
       </c>
       <c r="AD12" s="7">
         <v>0</v>
@@ -4369,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="F13" s="7">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -4384,10 +4450,10 @@
         <v>0.0065</v>
       </c>
       <c r="J13" s="8">
-        <v>0.0029</v>
+        <v>0.0041</v>
       </c>
       <c r="K13" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -4399,16 +4465,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="9">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="P13" s="9">
         <v>11</v>
       </c>
       <c r="Q13" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="9">
         <v>0</v>
@@ -4423,25 +4489,25 @@
         <v>0.26</v>
       </c>
       <c r="W13" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X13" s="8">
-        <v>0.0029</v>
+        <v>0.0041</v>
       </c>
       <c r="Y13" s="7">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="Z13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB13" s="7">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AC13" s="7">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AD13" s="7">
         <v>0</v>
@@ -4486,7 +4552,7 @@
         <v>1.68</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -4498,7 +4564,7 @@
         <v>0.0047</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="K14" s="8">
         <v>0.0006</v>
@@ -4513,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="P14" s="9">
         <v>8</v>
       </c>
       <c r="Q14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="9">
         <v>1</v>
@@ -4591,112 +4657,112 @@
         <v>51</v>
       </c>
       <c r="C15" s="7">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="D15" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="F15" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.0055</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.0043</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.0018</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1640</v>
+      </c>
+      <c r="P15" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>7</v>
+      </c>
+      <c r="R15" s="9">
+        <v>3</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="W15" s="9">
+        <v>6</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0.0037</v>
+      </c>
+      <c r="Y15" s="7">
         <v>0.47</v>
       </c>
-      <c r="G15" s="6">
-        <v>7.01</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.0031</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.0037</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>2.85</v>
-      </c>
-      <c r="M15" s="6">
-        <v>7.01</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1620</v>
-      </c>
-      <c r="P15" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>6</v>
-      </c>
-      <c r="R15" s="9">
-        <v>0</v>
-      </c>
-      <c r="S15" s="9">
-        <v>1</v>
-      </c>
-      <c r="T15" s="9">
-        <v>1</v>
-      </c>
-      <c r="U15" s="9">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0.57</v>
-      </c>
-      <c r="W15" s="9">
-        <v>3</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0.0019</v>
-      </c>
-      <c r="Y15" s="7">
+      <c r="Z15" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0.0012</v>
+      </c>
+      <c r="AB15" s="7">
         <v>0.95</v>
       </c>
-      <c r="Z15" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>0</v>
-      </c>
       <c r="AC15" s="7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AD15" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="6">
-        <v>7.01</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="6">
-        <v>7.01</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="8">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="8">
-        <v>0.0006</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="7">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:38" customHeight="1" ht="90">
@@ -4705,112 +4771,112 @@
         <v>52</v>
       </c>
       <c r="C16" s="7">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="E16" s="7">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="F16" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0031</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.0043</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="M16" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1615</v>
+      </c>
+      <c r="P16" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>7</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9">
+        <v>1</v>
+      </c>
+      <c r="T16" s="9">
+        <v>1</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
         <v>0.57</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.0061</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.003</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.0012</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1647</v>
-      </c>
-      <c r="P16" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>5</v>
-      </c>
-      <c r="R16" s="9">
-        <v>2</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0.28</v>
-      </c>
       <c r="W16" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X16" s="8">
-        <v>0.003</v>
+        <v>0.0025</v>
       </c>
       <c r="Y16" s="7">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="Z16" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="8">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="7">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="7">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="7">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="AE16" s="7">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="AF16" s="7">
-        <v>0</v>
+        <v>19.98</v>
       </c>
       <c r="AG16" s="6">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="AH16" s="6">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="AI16" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AK16" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AL16" s="7">
-        <v>0</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="17" spans="1:38" customHeight="1" ht="90">
@@ -4819,7 +4885,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
@@ -4828,7 +4894,7 @@
         <v>1.66</v>
       </c>
       <c r="F17" s="7">
-        <v>1.41</v>
+        <v>0.47</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -4840,7 +4906,7 @@
         <v>0.0047</v>
       </c>
       <c r="J17" s="8">
-        <v>0.0012</v>
+        <v>0.0035</v>
       </c>
       <c r="K17" s="8">
         <v>0</v>
@@ -4855,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="P17" s="9">
         <v>8</v>
       </c>
       <c r="Q17" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -4879,13 +4945,13 @@
         <v>0.35</v>
       </c>
       <c r="W17" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" s="8">
-        <v>0.0006</v>
+        <v>0.0018</v>
       </c>
       <c r="Y17" s="7">
-        <v>2.83</v>
+        <v>0.94</v>
       </c>
       <c r="Z17" s="9">
         <v>0</v>
@@ -4969,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="P18" s="9">
         <v>6</v>
@@ -5047,16 +5113,16 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="F19" s="7">
-        <v>2.79</v>
+        <v>0.92</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -5065,11 +5131,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
+        <v>0.0036</v>
+      </c>
+      <c r="J19" s="8">
         <v>0.0018</v>
       </c>
-      <c r="J19" s="8">
-        <v>0.0006</v>
-      </c>
       <c r="K19" s="8">
         <v>0</v>
       </c>
@@ -5083,14 +5149,14 @@
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>1684</v>
+        <v>1646</v>
       </c>
       <c r="P19" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="9">
         <v>3</v>
       </c>
-      <c r="Q19" s="9">
-        <v>1</v>
-      </c>
       <c r="R19" s="9">
         <v>0</v>
       </c>
@@ -5104,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="7">
-        <v>0.93</v>
+        <v>0.46</v>
       </c>
       <c r="W19" s="9">
         <v>1</v>
@@ -5113,7 +5179,7 @@
         <v>0.0006</v>
       </c>
       <c r="Y19" s="7">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="Z19" s="9">
         <v>0</v>
@@ -5167,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="F20" s="7">
-        <v>1.38</v>
+        <v>2.77</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -5179,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0036</v>
+        <v>0.0018</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0012</v>
+        <v>0.0006</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -5197,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>1649</v>
+        <v>1676</v>
       </c>
       <c r="P20" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" s="9">
         <v>0</v>
@@ -5218,16 +5284,16 @@
         <v>0</v>
       </c>
       <c r="V20" s="7">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="W20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="Y20" s="7">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="Z20" s="9">
         <v>0</v>
@@ -5284,7 +5350,7 @@
         <v>1.69</v>
       </c>
       <c r="F21" s="7">
-        <v>2.74</v>
+        <v>0.91</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -5296,7 +5362,7 @@
         <v>0.0049</v>
       </c>
       <c r="J21" s="8">
-        <v>0.0006</v>
+        <v>0.0019</v>
       </c>
       <c r="K21" s="8">
         <v>0</v>
@@ -5311,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="P21" s="9">
         <v>8</v>
       </c>
       <c r="Q21" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21" s="9">
         <v>0</v>
@@ -5335,13 +5401,13 @@
         <v>0.34</v>
       </c>
       <c r="W21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="Y21" s="7">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="Z21" s="9">
         <v>0</v>
@@ -5389,34 +5455,34 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>17.98</v>
       </c>
       <c r="E22" s="7">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0044</v>
+        <v>0.0051</v>
       </c>
       <c r="J22" s="8">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="K22" s="8">
         <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
@@ -5425,37 +5491,37 @@
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>1608</v>
+        <v>1560</v>
       </c>
       <c r="P22" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R22" s="9">
         <v>0</v>
       </c>
       <c r="S22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" s="9">
         <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="W22" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22" s="8">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="Y22" s="7">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Z22" s="9">
         <v>0</v>
@@ -5473,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="AE22" s="7">
-        <v>0</v>
+        <v>17.98</v>
       </c>
       <c r="AF22" s="7">
         <v>0</v>
       </c>
       <c r="AG22" s="6">
-        <v>0</v>
+        <v>6.71</v>
       </c>
       <c r="AH22" s="6">
         <v>0</v>
@@ -5488,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AK22" s="8">
         <v>0</v>
@@ -5509,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="F23" s="7">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="G23" s="6">
         <v>0</v>
@@ -5521,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0058</v>
+        <v>0.0044</v>
       </c>
       <c r="J23" s="8">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -5539,13 +5605,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>1564</v>
+        <v>1600</v>
       </c>
       <c r="P23" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R23" s="9">
         <v>0</v>
@@ -5560,16 +5626,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="7">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="W23" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X23" s="8">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="Y23" s="7">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="Z23" s="9">
         <v>0</v>
@@ -5617,7 +5683,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -5653,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="P24" s="9">
         <v>5</v>
@@ -5692,10 +5758,10 @@
         <v>0.0007</v>
       </c>
       <c r="AB24" s="7">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="AC24" s="7">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="AD24" s="7">
         <v>0</v>
@@ -5740,7 +5806,7 @@
         <v>1.96</v>
       </c>
       <c r="F25" s="7">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -5752,7 +5818,7 @@
         <v>0.0127</v>
       </c>
       <c r="J25" s="8">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="K25" s="8">
         <v>0.0015</v>
@@ -5767,13 +5833,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P25" s="9">
         <v>17</v>
       </c>
       <c r="Q25" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R25" s="9">
         <v>2</v>
@@ -5791,13 +5857,13 @@
         <v>0.15</v>
       </c>
       <c r="W25" s="9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X25" s="8">
-        <v>0.0052</v>
+        <v>0.0082</v>
       </c>
       <c r="Y25" s="7">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="Z25" s="9">
         <v>1</v>
@@ -5845,52 +5911,52 @@
         <v>62</v>
       </c>
       <c r="C26" s="7">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="D26" s="7">
         <v>45.96</v>
       </c>
       <c r="E26" s="7">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="F26" s="7">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="G26" s="6">
-        <v>17.61</v>
+        <v>17.68</v>
       </c>
       <c r="H26" s="8">
         <v>1</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0082</v>
+        <v>0.0083</v>
       </c>
       <c r="J26" s="8">
-        <v>0.0082</v>
+        <v>0.014</v>
       </c>
       <c r="K26" s="8">
-        <v>0.0008</v>
+        <v>0.0041</v>
       </c>
       <c r="L26" s="7">
         <v>1.3</v>
       </c>
       <c r="M26" s="6">
-        <v>8.8</v>
+        <v>8.84</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="P26" s="9">
         <v>10</v>
       </c>
       <c r="Q26" s="9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="R26" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" s="9">
         <v>2</v>
@@ -5905,25 +5971,25 @@
         <v>0.26</v>
       </c>
       <c r="W26" s="9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X26" s="8">
-        <v>0.0041</v>
+        <v>0.0091</v>
       </c>
       <c r="Y26" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>0.0033</v>
+      </c>
+      <c r="AB26" s="7">
         <v>0.52</v>
       </c>
-      <c r="Z26" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>0.0008</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>2.61</v>
-      </c>
       <c r="AC26" s="7">
-        <v>2.61</v>
+        <v>0.65</v>
       </c>
       <c r="AD26" s="7">
         <v>22.98</v>
@@ -5935,22 +6001,22 @@
         <v>22.98</v>
       </c>
       <c r="AG26" s="6">
-        <v>17.61</v>
+        <v>17.68</v>
       </c>
       <c r="AH26" s="6">
-        <v>8.8</v>
+        <v>8.84</v>
       </c>
       <c r="AI26" s="9">
         <v>1</v>
       </c>
       <c r="AJ26" s="8">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="AK26" s="8">
         <v>0.0008</v>
       </c>
       <c r="AL26" s="7">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="27" spans="1:38" customHeight="1" ht="90">
@@ -5959,7 +6025,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="7">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
@@ -5968,7 +6034,7 @@
         <v>1.74</v>
       </c>
       <c r="F27" s="7">
-        <v>1.3</v>
+        <v>0.43</v>
       </c>
       <c r="G27" s="6">
         <v>0</v>
@@ -5980,7 +6046,7 @@
         <v>0.0027</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0013</v>
+        <v>0.004</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -5995,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="9">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="P27" s="9">
         <v>4</v>
       </c>
       <c r="Q27" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R27" s="9">
         <v>0</v>
@@ -6019,13 +6085,13 @@
         <v>0.65</v>
       </c>
       <c r="W27" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X27" s="8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Y27" s="7">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="Z27" s="9">
         <v>0</v>
@@ -6073,52 +6139,52 @@
         <v>64</v>
       </c>
       <c r="C28" s="7">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D28" s="7">
         <v>38.96</v>
       </c>
       <c r="E28" s="7">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="F28" s="7">
-        <v>0.64</v>
+        <v>0.17</v>
       </c>
       <c r="G28" s="6">
-        <v>15.16</v>
+        <v>15.28</v>
       </c>
       <c r="H28" s="8">
         <v>1</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0047</v>
+        <v>0.0039</v>
       </c>
       <c r="J28" s="8">
-        <v>0.0031</v>
+        <v>0.0118</v>
       </c>
       <c r="K28" s="8">
-        <v>0.0008</v>
+        <v>0.0032</v>
       </c>
       <c r="L28" s="7">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M28" s="6">
-        <v>15.16</v>
+        <v>15.28</v>
       </c>
       <c r="N28" s="8">
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="P28" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="9">
+        <v>15</v>
+      </c>
+      <c r="R28" s="9">
         <v>4</v>
-      </c>
-      <c r="R28" s="9">
-        <v>1</v>
       </c>
       <c r="S28" s="9">
         <v>2</v>
@@ -6130,28 +6196,28 @@
         <v>0</v>
       </c>
       <c r="V28" s="7">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="W28" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X28" s="8">
-        <v>0.0031</v>
+        <v>0.0118</v>
       </c>
       <c r="Y28" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>0.0024</v>
+      </c>
+      <c r="AB28" s="7">
         <v>0.64</v>
       </c>
-      <c r="Z28" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>0.0008</v>
-      </c>
-      <c r="AB28" s="7">
-        <v>2.57</v>
-      </c>
       <c r="AC28" s="7">
-        <v>2.57</v>
+        <v>0.85</v>
       </c>
       <c r="AD28" s="7">
         <v>38.96</v>
@@ -6163,10 +6229,10 @@
         <v>38.96</v>
       </c>
       <c r="AG28" s="6">
-        <v>15.16</v>
+        <v>15.28</v>
       </c>
       <c r="AH28" s="6">
-        <v>15.16</v>
+        <v>15.28</v>
       </c>
       <c r="AI28" s="9">
         <v>2</v>
@@ -6178,7 +6244,7 @@
         <v>0.0016</v>
       </c>
       <c r="AL28" s="7">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="29" spans="1:38" customHeight="1" ht="90">
@@ -6187,73 +6253,73 @@
         <v>65</v>
       </c>
       <c r="C29" s="7">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="E29" s="7">
         <v>2.12</v>
       </c>
       <c r="F29" s="7">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0086</v>
+        <v>0.0087</v>
       </c>
       <c r="J29" s="8">
-        <v>0.0112</v>
+        <v>0.0148</v>
       </c>
       <c r="K29" s="8">
         <v>0</v>
       </c>
       <c r="L29" s="7">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="M29" s="6">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="N29" s="8">
         <v>0</v>
       </c>
       <c r="O29" s="9">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="P29" s="9">
         <v>10</v>
       </c>
       <c r="Q29" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
       </c>
       <c r="S29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="9">
         <v>0</v>
       </c>
       <c r="V29" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="W29" s="9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X29" s="8">
-        <v>0.0112</v>
+        <v>0.0148</v>
       </c>
       <c r="Y29" s="7">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="Z29" s="9">
         <v>0</v>
@@ -6268,31 +6334,31 @@
         <v>0</v>
       </c>
       <c r="AD29" s="7">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="AE29" s="7">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="AF29" s="7">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="AG29" s="6">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="AH29" s="6">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="AI29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AK29" s="8">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AL29" s="7">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="30" spans="1:38" customHeight="1" ht="90">
@@ -6310,7 +6376,7 @@
         <v>2.01</v>
       </c>
       <c r="F30" s="7">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G30" s="6">
         <v>6.24</v>
@@ -6322,7 +6388,7 @@
         <v>0.0075</v>
       </c>
       <c r="J30" s="8">
-        <v>0.01</v>
+        <v>0.0126</v>
       </c>
       <c r="K30" s="8">
         <v>0.0008</v>
@@ -6337,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="P30" s="9">
         <v>9</v>
       </c>
       <c r="Q30" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R30" s="9">
         <v>1</v>
@@ -6361,13 +6427,13 @@
         <v>0.27</v>
       </c>
       <c r="W30" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X30" s="8">
-        <v>0.0084</v>
+        <v>0.0101</v>
       </c>
       <c r="Y30" s="7">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="Z30" s="9">
         <v>1</v>
@@ -6421,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="7">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="F31" s="7">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="G31" s="6">
         <v>0</v>
@@ -6436,7 +6502,7 @@
         <v>0.0099</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0072</v>
+        <v>0.0226</v>
       </c>
       <c r="K31" s="8">
         <v>0</v>
@@ -6451,13 +6517,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="P31" s="9">
         <v>11</v>
       </c>
       <c r="Q31" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="R31" s="9">
         <v>0</v>
@@ -6475,13 +6541,13 @@
         <v>0.21</v>
       </c>
       <c r="W31" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X31" s="8">
-        <v>0.0045</v>
+        <v>0.0117</v>
       </c>
       <c r="Y31" s="7">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
       <c r="Z31" s="9">
         <v>0</v>
@@ -6529,16 +6595,16 @@
         <v>68</v>
       </c>
       <c r="C32" s="7">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="7">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="F32" s="7">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="G32" s="6">
         <v>0</v>
@@ -6547,13 +6613,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>0.0137</v>
+        <v>0.0057</v>
       </c>
       <c r="J32" s="8">
-        <v>0.0034</v>
+        <v>0.0029</v>
       </c>
       <c r="K32" s="8">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="L32" s="7">
         <v>0</v>
@@ -6565,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>1170</v>
+        <v>1048</v>
       </c>
       <c r="P32" s="9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R32" s="9">
         <v>1</v>
@@ -6586,28 +6652,28 @@
         <v>0</v>
       </c>
       <c r="V32" s="7">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="W32" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X32" s="8">
-        <v>0.0034</v>
+        <v>0.0019</v>
       </c>
       <c r="Y32" s="7">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="Z32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="8">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="7">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="AC32" s="7">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="7">
         <v>0</v>
@@ -6643,16 +6709,16 @@
         <v>69</v>
       </c>
       <c r="C33" s="7">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="D33" s="7">
         <v>0</v>
       </c>
       <c r="E33" s="7">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="F33" s="7">
-        <v>2.29</v>
+        <v>0.09</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -6661,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>0.0057</v>
+        <v>0.0112</v>
       </c>
       <c r="J33" s="8">
-        <v>0.001</v>
+        <v>0.0216</v>
       </c>
       <c r="K33" s="8">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
@@ -6679,16 +6745,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="9">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="P33" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="9">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R33" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" s="9">
         <v>0</v>
@@ -6700,28 +6766,28 @@
         <v>0</v>
       </c>
       <c r="V33" s="7">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="W33" s="9">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="X33" s="8">
-        <v>0.001</v>
+        <v>0.0198</v>
       </c>
       <c r="Y33" s="7">
-        <v>2.29</v>
+        <v>0.1</v>
       </c>
       <c r="Z33" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA33" s="8">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="AB33" s="7">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AC33" s="7">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AD33" s="7">
         <v>0</v>
@@ -6757,19 +6823,19 @@
         <v>70</v>
       </c>
       <c r="C34" s="7">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="D34" s="7">
         <v>19.98</v>
       </c>
       <c r="E34" s="7">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="F34" s="7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G34" s="6">
-        <v>8.96</v>
+        <v>9</v>
       </c>
       <c r="H34" s="8">
         <v>1</v>
@@ -6778,31 +6844,31 @@
         <v>0.0078</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0078</v>
+        <v>0.0096</v>
       </c>
       <c r="K34" s="8">
-        <v>0.0017</v>
+        <v>0.0035</v>
       </c>
       <c r="L34" s="7">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="M34" s="6">
-        <v>8.96</v>
+        <v>9</v>
       </c>
       <c r="N34" s="8">
         <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="P34" s="9">
         <v>9</v>
       </c>
       <c r="Q34" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R34" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S34" s="9">
         <v>1</v>
@@ -6817,25 +6883,25 @@
         <v>0.25</v>
       </c>
       <c r="W34" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X34" s="8">
-        <v>0.0078</v>
+        <v>0.0087</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="Z34" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA34" s="8">
-        <v>0.0017</v>
+        <v>0.0035</v>
       </c>
       <c r="AB34" s="7">
-        <v>1.12</v>
+        <v>0.56</v>
       </c>
       <c r="AC34" s="7">
-        <v>1.12</v>
+        <v>0.56</v>
       </c>
       <c r="AD34" s="7">
         <v>19.98</v>
@@ -6847,10 +6913,10 @@
         <v>19.98</v>
       </c>
       <c r="AG34" s="6">
-        <v>8.96</v>
+        <v>9</v>
       </c>
       <c r="AH34" s="6">
-        <v>8.96</v>
+        <v>9</v>
       </c>
       <c r="AI34" s="9">
         <v>1</v>
@@ -6862,7 +6928,7 @@
         <v>0.0009</v>
       </c>
       <c r="AL34" s="7">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="35" spans="1:38" customHeight="1" ht="90">
@@ -6871,7 +6937,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="7">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -6880,7 +6946,7 @@
         <v>2.03</v>
       </c>
       <c r="F35" s="7">
-        <v>0.56</v>
+        <v>0.32</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
@@ -6889,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <v>0.0036</v>
+        <v>0.0027</v>
       </c>
       <c r="J35" s="8">
-        <v>0.0036</v>
+        <v>0.0064</v>
       </c>
       <c r="K35" s="8">
         <v>0</v>
@@ -6907,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="9">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="P35" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q35" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R35" s="9">
         <v>0</v>
@@ -6928,16 +6994,16 @@
         <v>0</v>
       </c>
       <c r="V35" s="7">
-        <v>0.56</v>
+        <v>0.74</v>
       </c>
       <c r="W35" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X35" s="8">
-        <v>0.0036</v>
+        <v>0.0064</v>
       </c>
       <c r="Y35" s="7">
-        <v>0.56</v>
+        <v>0.32</v>
       </c>
       <c r="Z35" s="9">
         <v>0</v>
@@ -6994,7 +7060,7 @@
         <v>1.95</v>
       </c>
       <c r="F36" s="7">
-        <v>0.74</v>
+        <v>0.28</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
@@ -7006,10 +7072,10 @@
         <v>0.0088</v>
       </c>
       <c r="J36" s="8">
-        <v>0.0027</v>
+        <v>0.007</v>
       </c>
       <c r="K36" s="8">
-        <v>0.0018</v>
+        <v>0.0026</v>
       </c>
       <c r="L36" s="7">
         <v>0</v>
@@ -7021,16 +7087,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="9">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="P36" s="9">
         <v>10</v>
       </c>
       <c r="Q36" s="9">
+        <v>8</v>
+      </c>
+      <c r="R36" s="9">
         <v>3</v>
-      </c>
-      <c r="R36" s="9">
-        <v>2</v>
       </c>
       <c r="S36" s="9">
         <v>0</v>
@@ -7045,13 +7111,13 @@
         <v>0.22</v>
       </c>
       <c r="W36" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X36" s="8">
-        <v>0.0027</v>
+        <v>0.0053</v>
       </c>
       <c r="Y36" s="7">
-        <v>0.74</v>
+        <v>0.37</v>
       </c>
       <c r="Z36" s="9">
         <v>2</v>
@@ -7060,7 +7126,7 @@
         <v>0.0018</v>
       </c>
       <c r="AB36" s="7">
-        <v>1.1</v>
+        <v>0.74</v>
       </c>
       <c r="AC36" s="7">
         <v>1.1</v>
@@ -7102,16 +7168,16 @@
         <v>2.19</v>
       </c>
       <c r="D37" s="7">
-        <v>18.98</v>
+        <v>41.96</v>
       </c>
       <c r="E37" s="7">
         <v>1.78</v>
       </c>
       <c r="F37" s="7">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="G37" s="6">
-        <v>8.67</v>
+        <v>19.16</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
@@ -7120,37 +7186,37 @@
         <v>0.0073</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0033</v>
+        <v>0.0065</v>
       </c>
       <c r="K37" s="8">
         <v>0</v>
       </c>
       <c r="L37" s="7">
-        <v>2.19</v>
+        <v>1.1</v>
       </c>
       <c r="M37" s="6">
-        <v>0</v>
+        <v>10.49</v>
       </c>
       <c r="N37" s="8">
         <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="P37" s="9">
         <v>9</v>
       </c>
       <c r="Q37" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R37" s="9">
         <v>0</v>
       </c>
       <c r="S37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" s="9">
         <v>0</v>
@@ -7159,52 +7225,52 @@
         <v>0.24</v>
       </c>
       <c r="W37" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X37" s="8">
+        <v>0.0041</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>22.98</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>41.96</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>22.98</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>19.16</v>
+      </c>
+      <c r="AH37" s="6">
+        <v>10.49</v>
+      </c>
+      <c r="AI37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="8">
         <v>0.0016</v>
       </c>
-      <c r="Y37" s="7">
-        <v>1.1</v>
-      </c>
-      <c r="Z37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="7">
-        <v>18.98</v>
-      </c>
-      <c r="AF37" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="6">
-        <v>8.67</v>
-      </c>
-      <c r="AH37" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="8">
+      <c r="AK37" s="8">
         <v>0.0008</v>
       </c>
-      <c r="AK37" s="8">
-        <v>0</v>
-      </c>
       <c r="AL37" s="7">
-        <v>0</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="38" spans="1:38" customHeight="1" ht="90">
@@ -7213,7 +7279,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="D38" s="7">
         <v>16.98</v>
@@ -7222,10 +7288,10 @@
         <v>1.1</v>
       </c>
       <c r="F38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G38" s="6">
-        <v>14.77</v>
+        <v>14.89</v>
       </c>
       <c r="H38" s="8">
         <v>1</v>
@@ -7240,16 +7306,16 @@
         <v>0.001</v>
       </c>
       <c r="L38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="M38" s="6">
-        <v>14.77</v>
+        <v>14.89</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="P38" s="9">
         <v>8</v>
@@ -7279,7 +7345,7 @@
         <v>0.001</v>
       </c>
       <c r="Y38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="Z38" s="9">
         <v>1</v>
@@ -7288,10 +7354,10 @@
         <v>0.001</v>
       </c>
       <c r="AB38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AC38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AD38" s="7">
         <v>16.98</v>
@@ -7303,10 +7369,10 @@
         <v>16.98</v>
       </c>
       <c r="AG38" s="6">
-        <v>14.77</v>
+        <v>14.89</v>
       </c>
       <c r="AH38" s="6">
-        <v>14.77</v>
+        <v>14.89</v>
       </c>
       <c r="AI38" s="9">
         <v>1</v>
@@ -7318,7 +7384,7 @@
         <v>0.001</v>
       </c>
       <c r="AL38" s="7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="90">
@@ -7327,7 +7393,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="7">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -7336,7 +7402,7 @@
         <v>1.15</v>
       </c>
       <c r="F39" s="7">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
@@ -7348,7 +7414,7 @@
         <v>0.0065</v>
       </c>
       <c r="J39" s="8">
-        <v>0.0039</v>
+        <v>0.0091</v>
       </c>
       <c r="K39" s="8">
         <v>0</v>
@@ -7363,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="O39" s="9">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="P39" s="9">
         <v>5</v>
       </c>
       <c r="Q39" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R39" s="9">
         <v>0</v>
@@ -7387,13 +7453,13 @@
         <v>0.18</v>
       </c>
       <c r="W39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="8">
-        <v>0.0013</v>
+        <v>0.0026</v>
       </c>
       <c r="Y39" s="7">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="Z39" s="9">
         <v>0</v>
@@ -7450,7 +7516,7 @@
         <v>1.02</v>
       </c>
       <c r="F40" s="7">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -7459,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <v>0.0148</v>
+        <v>0.0149</v>
       </c>
       <c r="J40" s="8">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="K40" s="8">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="L40" s="7">
         <v>0</v>
@@ -7477,16 +7543,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="9">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P40" s="9">
         <v>9</v>
       </c>
       <c r="Q40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="9">
         <v>0</v>
@@ -7501,25 +7567,25 @@
         <v>0.07</v>
       </c>
       <c r="W40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X40" s="8">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="Y40" s="7">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="Z40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="8">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="AB40" s="7">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AC40" s="7">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AD40" s="7">
         <v>0</v>
@@ -7555,16 +7621,16 @@
         <v>77</v>
       </c>
       <c r="C41" s="7">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
       </c>
       <c r="E41" s="7">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="F41" s="7">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G41" s="6">
         <v>0</v>
@@ -7576,10 +7642,10 @@
         <v>0.0057</v>
       </c>
       <c r="J41" s="8">
-        <v>0.0043</v>
+        <v>0.0072</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="L41" s="7">
         <v>0</v>
@@ -7591,16 +7657,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P41" s="9">
         <v>4</v>
       </c>
       <c r="Q41" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41" s="9">
         <v>0</v>
@@ -7612,28 +7678,28 @@
         <v>0</v>
       </c>
       <c r="V41" s="7">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="W41" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41" s="8">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="Y41" s="7">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="Z41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="8">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="AB41" s="7">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AC41" s="7">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AD41" s="7">
         <v>0</v>
@@ -7675,10 +7741,10 @@
         <v>0</v>
       </c>
       <c r="E42" s="7">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="F42" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="6">
         <v>0</v>
@@ -7687,10 +7753,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="8">
-        <v>0.0074</v>
+        <v>0.0075</v>
       </c>
       <c r="J42" s="8">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="K42" s="8">
         <v>0</v>
@@ -7705,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P42" s="9">
         <v>5</v>
       </c>
       <c r="Q42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="9">
         <v>0</v>
@@ -7729,13 +7795,13 @@
         <v>0.1</v>
       </c>
       <c r="W42" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="8">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="Y42" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z42" s="9">
         <v>0</v>
@@ -7792,7 +7858,7 @@
         <v>0.39</v>
       </c>
       <c r="F43" s="7">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="G43" s="6">
         <v>75.04</v>
@@ -7804,7 +7870,7 @@
         <v>0.0061</v>
       </c>
       <c r="J43" s="8">
-        <v>0.0026</v>
+        <v>0.007</v>
       </c>
       <c r="K43" s="8">
         <v>0</v>
@@ -7819,13 +7885,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="P43" s="9">
         <v>7</v>
       </c>
       <c r="Q43" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R43" s="9">
         <v>0</v>
@@ -7843,13 +7909,13 @@
         <v>0.06</v>
       </c>
       <c r="W43" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X43" s="8">
-        <v>0.0017</v>
+        <v>0.0026</v>
       </c>
       <c r="Y43" s="7">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="Z43" s="9">
         <v>0</v>
@@ -7882,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="AJ43" s="8">
-        <v>0.0017</v>
+        <v>0.0018</v>
       </c>
       <c r="AK43" s="8">
         <v>0.0009</v>
@@ -7933,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P44" s="9">
         <v>3</v>
@@ -8017,10 +8083,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="7">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="F45" s="7">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -8029,10 +8095,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="8">
-        <v>0.0383</v>
+        <v>0.0385</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0032</v>
+        <v>0.0064</v>
       </c>
       <c r="K45" s="8">
         <v>0</v>
@@ -8047,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P45" s="9">
         <v>12</v>
       </c>
       <c r="Q45" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" s="9">
         <v>0</v>
@@ -8071,13 +8137,13 @@
         <v>0.03</v>
       </c>
       <c r="W45" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="8">
-        <v>0.0032</v>
+        <v>0.0064</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="Z45" s="9">
         <v>0</v>
@@ -8143,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <v>0.023</v>
+        <v>0.0199</v>
       </c>
       <c r="J46" s="8">
         <v>0.0066</v>
@@ -8161,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="9">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P46" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="9">
         <v>2</v>
@@ -8182,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="7">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="W46" s="9">
         <v>0</v>
@@ -8359,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="7">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -8389,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P48" s="9">
         <v>3</v>
@@ -8473,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -8485,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>0.0362</v>
+        <v>0.0365</v>
       </c>
       <c r="J49" s="8">
         <v>0</v>
@@ -8503,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="9">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P49" s="9">
         <v>11</v>
@@ -8590,7 +8656,7 @@
         <v>1.13</v>
       </c>
       <c r="F50" s="7">
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="G50" s="6">
         <v>0</v>
@@ -8602,7 +8668,7 @@
         <v>0.02</v>
       </c>
       <c r="J50" s="8">
-        <v>0.0033</v>
+        <v>0.02</v>
       </c>
       <c r="K50" s="8">
         <v>0</v>
@@ -8623,7 +8689,7 @@
         <v>6</v>
       </c>
       <c r="Q50" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R50" s="9">
         <v>0</v>
@@ -8713,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="8">
-        <v>0.0283</v>
+        <v>0.0285</v>
       </c>
       <c r="J51" s="8">
         <v>0.0071</v>
@@ -8731,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="9">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P51" s="9">
         <v>8</v>
@@ -8794,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="8">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="AK51" s="8">
         <v>0</v>
@@ -8815,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="7">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="F52" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -8827,10 +8893,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <v>0.0108</v>
+        <v>0.0109</v>
       </c>
       <c r="J52" s="8">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -8845,13 +8911,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="9">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P52" s="9">
         <v>3</v>
       </c>
       <c r="Q52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="9">
         <v>0</v>
@@ -8926,31 +8992,31 @@
         <v>0.29</v>
       </c>
       <c r="D53" s="7">
-        <v>17.98</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="F53" s="7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G53" s="6">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="H53" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>0.0164</v>
+        <v>0.0166</v>
       </c>
       <c r="J53" s="8">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="K53" s="8">
         <v>0</v>
       </c>
       <c r="L53" s="7">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="M53" s="6">
         <v>0</v>
@@ -8959,22 +9025,22 @@
         <v>0</v>
       </c>
       <c r="O53" s="9">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P53" s="9">
         <v>4</v>
       </c>
       <c r="Q53" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R53" s="9">
         <v>0</v>
       </c>
       <c r="S53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="9">
         <v>0</v>
@@ -8983,13 +9049,13 @@
         <v>0.07</v>
       </c>
       <c r="W53" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X53" s="8">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="Y53" s="7">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Z53" s="9">
         <v>0</v>
@@ -9007,13 +9073,13 @@
         <v>0</v>
       </c>
       <c r="AE53" s="7">
-        <v>17.98</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="7">
         <v>0</v>
       </c>
       <c r="AG53" s="6">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="6">
         <v>0</v>
@@ -9022,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="8">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="8">
         <v>0</v>
@@ -9151,16 +9217,16 @@
         <v>91</v>
       </c>
       <c r="C55" s="7">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
       </c>
       <c r="E55" s="7">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="F55" s="7">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
@@ -9169,10 +9235,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>0.0169</v>
+        <v>0.0172</v>
       </c>
       <c r="J55" s="8">
-        <v>0.0056</v>
+        <v>0.023</v>
       </c>
       <c r="K55" s="8">
         <v>0</v>
@@ -9187,13 +9253,13 @@
         <v>0</v>
       </c>
       <c r="O55" s="9">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P55" s="9">
         <v>3</v>
       </c>
       <c r="Q55" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R55" s="9">
         <v>0</v>
@@ -9208,16 +9274,16 @@
         <v>0</v>
       </c>
       <c r="V55" s="7">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="W55" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X55" s="8">
-        <v>0</v>
+        <v>0.0172</v>
       </c>
       <c r="Y55" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z55" s="9">
         <v>0</v>
@@ -9271,10 +9337,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="7">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="F56" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
@@ -9283,13 +9349,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="8">
-        <v>0.0119</v>
+        <v>0.0122</v>
       </c>
       <c r="J56" s="8">
-        <v>0</v>
+        <v>0.0488</v>
       </c>
       <c r="K56" s="8">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="L56" s="7">
         <v>0</v>
@@ -9301,16 +9367,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P56" s="9">
         <v>1</v>
       </c>
       <c r="Q56" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="9">
         <v>0</v>
@@ -9325,25 +9391,25 @@
         <v>0.09</v>
       </c>
       <c r="W56" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X56" s="8">
-        <v>0</v>
+        <v>0.0488</v>
       </c>
       <c r="Y56" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z56" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" s="8">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="AB56" s="7">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AC56" s="7">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AD56" s="7">
         <v>0</v>
@@ -9388,7 +9454,7 @@
         <v>2.19</v>
       </c>
       <c r="F57" s="7">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="G57" s="6">
         <v>0</v>
@@ -9400,7 +9466,7 @@
         <v>0.0625</v>
       </c>
       <c r="J57" s="8">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="K57" s="8">
         <v>0</v>
@@ -9421,7 +9487,7 @@
         <v>2</v>
       </c>
       <c r="Q57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="9">
         <v>0</v>
@@ -9439,13 +9505,13 @@
         <v>0.04</v>
       </c>
       <c r="W57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="8">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="Y57" s="7">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="Z57" s="9">
         <v>0</v>
@@ -9499,10 +9565,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="F58" s="7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -9514,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="8">
-        <v>0.0323</v>
+        <v>0</v>
       </c>
       <c r="K58" s="8">
         <v>0</v>
@@ -9529,13 +9595,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P58" s="9">
         <v>0</v>
       </c>
       <c r="Q58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="9">
         <v>0</v>
@@ -9553,13 +9619,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="8">
-        <v>0.0323</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="9">
         <v>0</v>
@@ -9613,10 +9679,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="7">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="F59" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -9628,10 +9694,10 @@
         <v>0</v>
       </c>
       <c r="J59" s="8">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="K59" s="8">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="L59" s="7">
         <v>0</v>
@@ -9643,16 +9709,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P59" s="9">
         <v>0</v>
       </c>
       <c r="Q59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="9">
         <v>0</v>
@@ -9667,13 +9733,13 @@
         <v>0</v>
       </c>
       <c r="W59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X59" s="8">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="Y59" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z59" s="9">
         <v>0</v>
@@ -9682,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AB59" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AC59" s="7">
         <v>0</v>
@@ -9841,67 +9907,67 @@
         <v>0</v>
       </c>
       <c r="E61" s="7">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0</v>
+      </c>
+      <c r="K61" s="8">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+      <c r="N61" s="8">
+        <v>0</v>
+      </c>
+      <c r="O61" s="9">
+        <v>25</v>
+      </c>
+      <c r="P61" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>0</v>
+      </c>
+      <c r="R61" s="9">
+        <v>0</v>
+      </c>
+      <c r="S61" s="9">
+        <v>0</v>
+      </c>
+      <c r="T61" s="9">
+        <v>0</v>
+      </c>
+      <c r="U61" s="9">
+        <v>0</v>
+      </c>
+      <c r="V61" s="7">
         <v>0.05</v>
       </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>0.0526</v>
-      </c>
-      <c r="K61" s="8">
-        <v>0</v>
-      </c>
-      <c r="L61" s="7">
-        <v>0</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0</v>
-      </c>
-      <c r="N61" s="8">
-        <v>0</v>
-      </c>
-      <c r="O61" s="9">
-        <v>19</v>
-      </c>
-      <c r="P61" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>1</v>
-      </c>
-      <c r="R61" s="9">
-        <v>0</v>
-      </c>
-      <c r="S61" s="9">
-        <v>0</v>
-      </c>
-      <c r="T61" s="9">
-        <v>0</v>
-      </c>
-      <c r="U61" s="9">
-        <v>0</v>
-      </c>
-      <c r="V61" s="7">
-        <v>0</v>
-      </c>
       <c r="W61" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="8">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="9">
         <v>0</v>
@@ -9955,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="7">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="F62" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G62" s="6">
         <v>0</v>
@@ -9967,10 +10033,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J62" s="8">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="K62" s="8">
         <v>0</v>
@@ -9985,14 +10051,14 @@
         <v>0</v>
       </c>
       <c r="O62" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9">
         <v>1</v>
       </c>
-      <c r="Q62" s="9">
-        <v>0</v>
-      </c>
       <c r="R62" s="9">
         <v>0</v>
       </c>
@@ -10006,16 +10072,16 @@
         <v>0</v>
       </c>
       <c r="V62" s="7">
+        <v>0</v>
+      </c>
+      <c r="W62" s="9">
+        <v>1</v>
+      </c>
+      <c r="X62" s="8">
+        <v>0.0526</v>
+      </c>
+      <c r="Y62" s="7">
         <v>0.05</v>
-      </c>
-      <c r="W62" s="9">
-        <v>0</v>
-      </c>
-      <c r="X62" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="7">
-        <v>0</v>
       </c>
       <c r="Z62" s="9">
         <v>0</v>
@@ -10183,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -10213,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P64" s="9">
         <v>0</v>
@@ -10297,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>1.25</v>
+        <v>0.83</v>
       </c>
       <c r="F65" s="7">
         <v>0</v>
@@ -10327,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P65" s="9">
         <v>0</v>
@@ -10411,10 +10477,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="7">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="F66" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G66" s="6">
         <v>0</v>
@@ -10426,7 +10492,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="8">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="K66" s="8">
         <v>0</v>
@@ -10441,13 +10507,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P66" s="9">
         <v>0</v>
       </c>
       <c r="Q66" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R66" s="9">
         <v>0</v>
@@ -10528,7 +10594,7 @@
         <v>0.83</v>
       </c>
       <c r="F67" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
@@ -10540,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="8">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="K67" s="8">
         <v>0</v>
@@ -10561,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R67" s="9">
         <v>0</v>
@@ -10639,10 +10705,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="7">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="F68" s="7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -10654,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="8">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="K68" s="8">
         <v>0</v>
@@ -10669,13 +10735,13 @@
         <v>0</v>
       </c>
       <c r="O68" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="P68" s="9">
         <v>0</v>
       </c>
       <c r="Q68" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R68" s="9">
         <v>0</v>
@@ -10756,7 +10822,7 @@
         <v>1.15</v>
       </c>
       <c r="F69" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -10768,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="8">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="K69" s="8">
         <v>0</v>
@@ -10789,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R69" s="9">
         <v>0</v>
@@ -11092,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="E72" s="7">
         <v>0</v>
@@ -11104,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="8">
         <v>0</v>
@@ -11137,10 +11203,10 @@
         <v>0</v>
       </c>
       <c r="S72" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" s="9">
         <v>0</v>
@@ -11170,13 +11236,13 @@
         <v>0</v>
       </c>
       <c r="AD72" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="7">
-        <v>19.98</v>
+        <v>0</v>
       </c>
       <c r="AG72" s="6">
         <v>0</v>
@@ -11185,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="AI72" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ72" s="8">
         <v>0</v>
@@ -11239,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P73" s="9">
         <v>0</v>
@@ -11317,112 +11383,340 @@
         <v>110</v>
       </c>
       <c r="C74" s="7">
-        <v>142.56</v>
+        <v>0</v>
       </c>
       <c r="D74" s="7">
-        <v>642.93</v>
+        <v>19.98</v>
       </c>
       <c r="E74" s="7">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F74" s="7">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G74" s="6">
-        <v>4.51</v>
+        <v>0</v>
       </c>
       <c r="H74" s="8">
-        <v>0.9444</v>
+        <v>1</v>
       </c>
       <c r="I74" s="8">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
+        <v>0</v>
+      </c>
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>1</v>
+      </c>
+      <c r="R74" s="9">
+        <v>2</v>
+      </c>
+      <c r="S74" s="9">
+        <v>1</v>
+      </c>
+      <c r="T74" s="9">
+        <v>1</v>
+      </c>
+      <c r="U74" s="9">
+        <v>0</v>
+      </c>
+      <c r="V74" s="7">
+        <v>0</v>
+      </c>
+      <c r="W74" s="9">
+        <v>0</v>
+      </c>
+      <c r="X74" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AE74" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AF74" s="7">
+        <v>19.98</v>
+      </c>
+      <c r="AG74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" customHeight="1" ht="90">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>31.13</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>19</v>
+      </c>
+      <c r="R75" s="9">
+        <v>0</v>
+      </c>
+      <c r="S75" s="9">
+        <v>4</v>
+      </c>
+      <c r="T75" s="9">
+        <v>4</v>
+      </c>
+      <c r="U75" s="9">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7">
+        <v>0</v>
+      </c>
+      <c r="W75" s="9">
+        <v>11</v>
+      </c>
+      <c r="X75" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="7">
+        <v>16.61</v>
+      </c>
+      <c r="AE75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" customHeight="1" ht="90">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="7">
+        <v>142.19</v>
+      </c>
+      <c r="D76" s="7">
+        <v>711.02</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="G76" s="6">
+        <v>5</v>
+      </c>
+      <c r="H76" s="8">
+        <v>0.8571</v>
+      </c>
+      <c r="I76" s="8">
         <v>0.0029</v>
       </c>
-      <c r="J74" s="8">
-        <v>0.0024</v>
-      </c>
-      <c r="K74" s="8">
+      <c r="J76" s="8">
+        <v>0.0046</v>
+      </c>
+      <c r="K76" s="8">
+        <v>0.0006</v>
+      </c>
+      <c r="L76" s="7">
+        <v>3.39</v>
+      </c>
+      <c r="M76" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+      <c r="O76" s="9">
+        <v>167469</v>
+      </c>
+      <c r="P76" s="9">
+        <v>478</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>775</v>
+      </c>
+      <c r="R76" s="9">
+        <v>96</v>
+      </c>
+      <c r="S76" s="9">
+        <v>42</v>
+      </c>
+      <c r="T76" s="9">
+        <v>42</v>
+      </c>
+      <c r="U76" s="9">
+        <v>9</v>
+      </c>
+      <c r="V76" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W76" s="9">
+        <v>481</v>
+      </c>
+      <c r="X76" s="8">
+        <v>0.0029</v>
+      </c>
+      <c r="Y76" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="Z76" s="9">
+        <v>63</v>
+      </c>
+      <c r="AA76" s="8">
+        <v>0.0004</v>
+      </c>
+      <c r="AB76" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="AC76" s="7">
+        <v>2.26</v>
+      </c>
+      <c r="AD76" s="7">
+        <v>526.69</v>
+      </c>
+      <c r="AE76" s="7">
+        <v>643.93</v>
+      </c>
+      <c r="AF76" s="7">
+        <v>474.12</v>
+      </c>
+      <c r="AG76" s="6">
+        <v>4.53</v>
+      </c>
+      <c r="AH76" s="6">
+        <v>3.33</v>
+      </c>
+      <c r="AI76" s="9">
+        <v>29</v>
+      </c>
+      <c r="AJ76" s="8">
+        <v>0.0003</v>
+      </c>
+      <c r="AK76" s="8">
         <v>0.0002</v>
       </c>
-      <c r="L74" s="7">
-        <v>3.96</v>
-      </c>
-      <c r="M74" s="6">
-        <v>3.32</v>
-      </c>
-      <c r="N74" s="8">
-        <v>0</v>
-      </c>
-      <c r="O74" s="9">
-        <v>168723</v>
-      </c>
-      <c r="P74" s="9">
-        <v>489</v>
-      </c>
-      <c r="Q74" s="9">
-        <v>407</v>
-      </c>
-      <c r="R74" s="9">
-        <v>36</v>
-      </c>
-      <c r="S74" s="9">
-        <v>36</v>
-      </c>
-      <c r="T74" s="9">
-        <v>36</v>
-      </c>
-      <c r="U74" s="9">
-        <v>9</v>
-      </c>
-      <c r="V74" s="7">
-        <v>0.29</v>
-      </c>
-      <c r="W74" s="9">
-        <v>226</v>
-      </c>
-      <c r="X74" s="8">
-        <v>0.0013</v>
-      </c>
-      <c r="Y74" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="Z74" s="9">
-        <v>23</v>
-      </c>
-      <c r="AA74" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AB74" s="7">
-        <v>3.96</v>
-      </c>
-      <c r="AC74" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="AD74" s="7">
-        <v>473.12</v>
-      </c>
-      <c r="AE74" s="7">
-        <v>606.97</v>
-      </c>
-      <c r="AF74" s="7">
-        <v>437.16</v>
-      </c>
-      <c r="AG74" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="AH74" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="AI74" s="9">
-        <v>25</v>
-      </c>
-      <c r="AJ74" s="8">
-        <v>0.0002</v>
-      </c>
-      <c r="AK74" s="8">
-        <v>0.0001</v>
-      </c>
-      <c r="AL74" s="7">
-        <v>5.7</v>
+      <c r="AL76" s="7">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
